--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -796,13 +796,13 @@
         <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>573</v>
+        <v>509</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -824,10 +824,10 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
         <v>8</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -852,13 +852,13 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -877,47 +877,47 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45844</v>
+        <v>45845</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>197</v>
+        <v>612</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>584</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -936,13 +936,13 @@
         <v>414</v>
       </c>
       <c r="D7" t="n">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>78</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -964,13 +964,13 @@
         <v>414</v>
       </c>
       <c r="D8" t="n">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G8" t="n">
         <v>78</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1020,52 +1020,52 @@
         <v>414</v>
       </c>
       <c r="D10" t="n">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>78</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45848</v>
+        <v>45845</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D11" t="n">
-        <v>896</v>
+        <v>329</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H11" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>930</v>
+        <v>896</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1144,23 +1144,23 @@
         <v>15</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45848</v>
+        <v>45846</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1169,26 +1169,26 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>923</v>
+        <v>930</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1197,15 +1197,15 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45846</v>
+        <v>45849</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>945</v>
+        <v>923</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1256,23 +1256,23 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45848</v>
+        <v>45847</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1281,26 +1281,26 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1309,26 +1309,26 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>907</v>
+        <v>945</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1337,15 +1337,15 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45845</v>
+        <v>45849</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>945</v>
       </c>
       <c r="D22" t="n">
-        <v>930</v>
+        <v>907</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1368,7 +1368,7 @@
         <v>15</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
@@ -1377,14 +1377,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>945</v>
       </c>
       <c r="D23" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>15</v>
       </c>
       <c r="H23" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
@@ -1405,14 +1405,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>945</v>
       </c>
       <c r="D24" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>15</v>
       </c>
       <c r="H24" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1433,14 +1433,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>945</v>
       </c>
       <c r="D25" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>15</v>
       </c>
       <c r="H25" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1485,11 +1485,11 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1513,11 +1513,11 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1541,11 +1541,11 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1569,18 +1569,18 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>945</v>
       </c>
       <c r="D30" t="n">
-        <v>930</v>
+        <v>896</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1592,23 +1592,23 @@
         <v>15</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45848</v>
+        <v>45845</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>945</v>
       </c>
       <c r="D31" t="n">
-        <v>896</v>
+        <v>930</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1620,16 +1620,16 @@
         <v>15</v>
       </c>
       <c r="H31" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1653,11 +1653,11 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1681,18 +1681,18 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>945</v>
       </c>
       <c r="D34" t="n">
-        <v>930</v>
+        <v>896</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1704,23 +1704,23 @@
         <v>15</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45848</v>
+        <v>45846</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1000</v>
+        <v>945</v>
       </c>
       <c r="D35" t="n">
-        <v>1000</v>
+        <v>896</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1729,26 +1729,26 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1000</v>
+        <v>945</v>
       </c>
       <c r="D36" t="n">
-        <v>1000</v>
+        <v>930</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1765,167 +1765,167 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45846</v>
+        <v>45849</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1000</v>
+        <v>945</v>
       </c>
       <c r="D37" t="n">
-        <v>998</v>
+        <v>896</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1000</v>
+        <v>945</v>
       </c>
       <c r="D38" t="n">
-        <v>718</v>
+        <v>896</v>
       </c>
       <c r="E38" t="n">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45848</v>
+        <v>45847</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D39" t="n">
-        <v>274</v>
+        <v>896</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H39" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D40" t="n">
-        <v>274</v>
+        <v>896</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H40" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D41" t="n">
-        <v>274</v>
+        <v>930</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H41" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45845</v>
+        <v>45849</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>288</v>
+        <v>1000</v>
       </c>
       <c r="D42" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1124</v>
+        <v>1000</v>
       </c>
       <c r="D43" t="n">
-        <v>595</v>
+        <v>1000</v>
       </c>
       <c r="E43" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>463</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1965,20 +1965,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1124</v>
+        <v>1000</v>
       </c>
       <c r="D44" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1993,20 +1993,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1124</v>
+        <v>1000</v>
       </c>
       <c r="D45" t="n">
-        <v>1120</v>
+        <v>998</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -2021,20 +2021,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1124</v>
+        <v>1000</v>
       </c>
       <c r="D46" t="n">
-        <v>1124</v>
+        <v>718</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -2045,113 +2045,393 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C47" t="n">
+        <v>288</v>
+      </c>
+      <c r="D47" t="n">
+        <v>274</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>3</v>
       </c>
-      <c r="D47" t="n">
+      <c r="G47" t="n">
         <v>2</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>197</v>
+        <v>288</v>
       </c>
       <c r="D48" t="n">
-        <v>137</v>
+        <v>274</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>197</v>
+        <v>288</v>
       </c>
       <c r="D49" t="n">
-        <v>142</v>
+        <v>274</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>288</v>
+      </c>
+      <c r="D50" t="n">
+        <v>274</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
         <v>45845</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>288</v>
+      </c>
+      <c r="D51" t="n">
+        <v>280</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>6</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C50" t="n">
+      <c r="C52" t="n">
         <v>197</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D52" t="n">
+        <v>129</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>68</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D53" t="n">
+        <v>595</v>
+      </c>
+      <c r="E53" t="n">
+        <v>66</v>
+      </c>
+      <c r="F53" t="n">
+        <v>463</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1120</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>4</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1120</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>4</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1124</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>3</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>197</v>
+      </c>
+      <c r="D58" t="n">
+        <v>137</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>60</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>197</v>
+      </c>
+      <c r="D59" t="n">
+        <v>142</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>55</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>197</v>
+      </c>
+      <c r="D60" t="n">
         <v>79</v>
       </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
         <v>118</v>
       </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,7 +735,7 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -796,13 +796,13 @@
         <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>509</v>
+        <v>440</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="F2" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -824,13 +824,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>573</v>
+        <v>509</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -852,10 +852,10 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
         <v>8</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -880,13 +880,13 @@
         <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -905,27 +905,27 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D6" t="n">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G6" t="n">
         <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -936,13 +936,13 @@
         <v>414</v>
       </c>
       <c r="D7" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>78</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -964,13 +964,13 @@
         <v>414</v>
       </c>
       <c r="D8" t="n">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>78</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -992,13 +992,13 @@
         <v>414</v>
       </c>
       <c r="D9" t="n">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G9" t="n">
         <v>78</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1048,24 +1048,24 @@
         <v>414</v>
       </c>
       <c r="D11" t="n">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>78</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>930</v>
+        <v>896</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1200,12 +1200,12 @@
         <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>945</v>
+        <v>923</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1340,12 +1340,12 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>945</v>
       </c>
       <c r="D26" t="n">
-        <v>930</v>
+        <v>907</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1480,12 +1480,12 @@
         <v>15</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>945</v>
       </c>
       <c r="D31" t="n">
-        <v>930</v>
+        <v>896</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1620,12 +1620,12 @@
         <v>15</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>945</v>
       </c>
       <c r="D36" t="n">
-        <v>930</v>
+        <v>896</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1760,12 +1760,12 @@
         <v>15</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>945</v>
       </c>
       <c r="D41" t="n">
-        <v>930</v>
+        <v>896</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -1900,12 +1900,12 @@
         <v>15</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2000,13 +2000,13 @@
         <v>1000</v>
       </c>
       <c r="D45" t="n">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2028,13 +2028,13 @@
         <v>1000</v>
       </c>
       <c r="D46" t="n">
-        <v>718</v>
+        <v>998</v>
       </c>
       <c r="E46" t="n">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2168,41 +2168,41 @@
         <v>288</v>
       </c>
       <c r="D51" t="n">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>197</v>
+        <v>1124</v>
       </c>
       <c r="D52" t="n">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1094</v>
       </c>
       <c r="F52" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2224,13 +2224,13 @@
         <v>1124</v>
       </c>
       <c r="D53" t="n">
-        <v>595</v>
+        <v>501</v>
       </c>
       <c r="E53" t="n">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F53" t="n">
-        <v>463</v>
+        <v>544</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2252,13 +2252,13 @@
         <v>1124</v>
       </c>
       <c r="D54" t="n">
-        <v>1120</v>
+        <v>595</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F54" t="n">
-        <v>4</v>
+        <v>463</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2308,13 +2308,13 @@
         <v>1124</v>
       </c>
       <c r="D56" t="n">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2333,16 +2333,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2364,13 +2364,13 @@
         <v>197</v>
       </c>
       <c r="D58" t="n">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2389,16 +2389,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2420,18 +2420,46 @@
         <v>197</v>
       </c>
       <c r="D60" t="n">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>197</v>
+      </c>
+      <c r="D61" t="n">
+        <v>142</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>55</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -785,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -796,13 +796,13 @@
         <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>440</v>
+        <v>515</v>
       </c>
       <c r="E2" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -824,13 +824,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>509</v>
+        <v>440</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="F3" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -852,13 +852,13 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>573</v>
+        <v>509</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -880,10 +880,10 @@
         <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
         <v>8</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -908,13 +908,13 @@
         <v>610</v>
       </c>
       <c r="D6" t="n">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
         <v>5</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -964,13 +964,13 @@
         <v>414</v>
       </c>
       <c r="D8" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>78</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -992,13 +992,13 @@
         <v>414</v>
       </c>
       <c r="D9" t="n">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>78</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1020,13 +1020,13 @@
         <v>414</v>
       </c>
       <c r="D10" t="n">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G10" t="n">
         <v>78</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1356,13 +1356,13 @@
         <v>945</v>
       </c>
       <c r="D22" t="n">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>15</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2028,13 +2028,13 @@
         <v>1000</v>
       </c>
       <c r="D46" t="n">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2196,13 +2196,13 @@
         <v>1124</v>
       </c>
       <c r="D52" t="n">
-        <v>30</v>
+        <v>596</v>
       </c>
       <c r="E52" t="n">
-        <v>1094</v>
+        <v>66</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2224,13 +2224,13 @@
         <v>1124</v>
       </c>
       <c r="D53" t="n">
-        <v>501</v>
+        <v>30</v>
       </c>
       <c r="E53" t="n">
-        <v>79</v>
+        <v>1094</v>
       </c>
       <c r="F53" t="n">
-        <v>544</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2252,13 +2252,13 @@
         <v>1124</v>
       </c>
       <c r="D54" t="n">
-        <v>595</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F54" t="n">
-        <v>463</v>
+        <v>544</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2280,13 +2280,13 @@
         <v>1124</v>
       </c>
       <c r="D55" t="n">
-        <v>1120</v>
+        <v>595</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F55" t="n">
-        <v>4</v>
+        <v>463</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2336,13 +2336,13 @@
         <v>197</v>
       </c>
       <c r="D57" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2389,16 +2389,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2417,16 +2417,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2448,13 +2448,13 @@
         <v>197</v>
       </c>
       <c r="D61" t="n">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,35 +785,35 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>610</v>
+        <v>414</v>
       </c>
       <c r="D2" t="n">
-        <v>515</v>
+        <v>313</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -824,13 +824,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>440</v>
+        <v>515</v>
       </c>
       <c r="E3" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -852,13 +852,13 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>509</v>
+        <v>440</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="F4" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -880,13 +880,13 @@
         <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>573</v>
+        <v>509</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -908,10 +908,10 @@
         <v>610</v>
       </c>
       <c r="D6" t="n">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
         <v>8</v>
@@ -925,18 +925,18 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D7" t="n">
-        <v>316</v>
+        <v>896</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -945,15 +945,15 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H7" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -992,13 +992,13 @@
         <v>414</v>
       </c>
       <c r="D9" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>78</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1020,13 +1020,13 @@
         <v>414</v>
       </c>
       <c r="D10" t="n">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>78</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1048,13 +1048,13 @@
         <v>414</v>
       </c>
       <c r="D11" t="n">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G11" t="n">
         <v>78</v>
@@ -1065,18 +1065,18 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1085,15 +1085,15 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1205,18 +1205,18 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1225,15 +1225,15 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1345,35 +1345,35 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>945</v>
       </c>
       <c r="D22" t="n">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>15</v>
       </c>
       <c r="H22" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1384,13 +1384,13 @@
         <v>945</v>
       </c>
       <c r="D23" t="n">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>15</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1485,11 +1485,11 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1513,7 +1513,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1625,24 +1625,24 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>945</v>
       </c>
       <c r="D32" t="n">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>15</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1765,35 +1765,35 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D37" t="n">
-        <v>896</v>
+        <v>485</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G37" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1905,35 +1905,35 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1000</v>
+        <v>288</v>
       </c>
       <c r="D42" t="n">
-        <v>1000</v>
+        <v>274</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2045,35 +2045,35 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>288</v>
+        <v>1142</v>
       </c>
       <c r="D47" t="n">
-        <v>274</v>
+        <v>30</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1089</v>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2185,24 +2185,24 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1124</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>596</v>
+        <v>3</v>
       </c>
       <c r="E52" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>462</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2224,13 +2224,13 @@
         <v>1124</v>
       </c>
       <c r="D53" t="n">
-        <v>30</v>
+        <v>596</v>
       </c>
       <c r="E53" t="n">
-        <v>1094</v>
+        <v>66</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2252,13 +2252,13 @@
         <v>1124</v>
       </c>
       <c r="D54" t="n">
-        <v>501</v>
+        <v>30</v>
       </c>
       <c r="E54" t="n">
-        <v>79</v>
+        <v>1094</v>
       </c>
       <c r="F54" t="n">
-        <v>544</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2280,13 +2280,13 @@
         <v>1124</v>
       </c>
       <c r="D55" t="n">
-        <v>595</v>
+        <v>501</v>
       </c>
       <c r="E55" t="n">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F55" t="n">
-        <v>463</v>
+        <v>544</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2308,13 +2308,13 @@
         <v>1124</v>
       </c>
       <c r="D56" t="n">
-        <v>1120</v>
+        <v>595</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F56" t="n">
-        <v>4</v>
+        <v>463</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -2432,34 +2432,6 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>197</v>
-      </c>
-      <c r="D61" t="n">
-        <v>137</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>60</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -785,63 +785,63 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>414</v>
+        <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>313</v>
+        <v>515</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="G2" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>610</v>
+        <v>414</v>
       </c>
       <c r="D3" t="n">
-        <v>515</v>
+        <v>313</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H3" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -852,13 +852,13 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>440</v>
+        <v>515</v>
       </c>
       <c r="E4" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -880,13 +880,13 @@
         <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>509</v>
+        <v>440</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="F5" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -908,13 +908,13 @@
         <v>610</v>
       </c>
       <c r="D6" t="n">
-        <v>573</v>
+        <v>509</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G6" t="n">
         <v>5</v>
@@ -925,46 +925,46 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D7" t="n">
-        <v>896</v>
+        <v>313</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H7" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D8" t="n">
-        <v>316</v>
+        <v>896</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -973,15 +973,15 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H8" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1020,13 +1020,13 @@
         <v>414</v>
       </c>
       <c r="D10" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>78</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1048,13 +1048,13 @@
         <v>414</v>
       </c>
       <c r="D11" t="n">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>78</v>
@@ -1065,18 +1065,18 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1085,26 +1085,26 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H12" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1113,15 +1113,15 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1205,18 +1205,18 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1225,26 +1225,26 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1253,15 +1253,15 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1345,18 +1345,18 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>945</v>
       </c>
       <c r="D22" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1368,40 +1368,40 @@
         <v>15</v>
       </c>
       <c r="H22" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>945</v>
       </c>
       <c r="D23" t="n">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>15</v>
       </c>
       <c r="H23" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1412,13 +1412,13 @@
         <v>945</v>
       </c>
       <c r="D24" t="n">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>15</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1485,11 +1485,11 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1513,11 +1513,11 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1541,7 +1541,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1625,24 +1625,24 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>945</v>
       </c>
       <c r="D32" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>15</v>
@@ -1653,24 +1653,24 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>945</v>
       </c>
       <c r="D33" t="n">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>15</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1765,63 +1765,63 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D37" t="n">
-        <v>485</v>
+        <v>896</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H37" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D38" t="n">
-        <v>896</v>
+        <v>485</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G38" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1905,63 +1905,63 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>288</v>
+        <v>1000</v>
       </c>
       <c r="D42" t="n">
-        <v>274</v>
+        <v>1000</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1000</v>
+        <v>288</v>
       </c>
       <c r="D43" t="n">
-        <v>1000</v>
+        <v>274</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2045,63 +2045,63 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1142</v>
+        <v>288</v>
       </c>
       <c r="D47" t="n">
-        <v>30</v>
+        <v>274</v>
       </c>
       <c r="E47" t="n">
-        <v>1089</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>288</v>
+        <v>1142</v>
       </c>
       <c r="D48" t="n">
-        <v>274</v>
+        <v>30</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1089</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2185,52 +2185,52 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>1142</v>
       </c>
       <c r="D52" t="n">
-        <v>3</v>
+        <v>595</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>467</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1124</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>596</v>
+        <v>3</v>
       </c>
       <c r="E53" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>462</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2252,13 +2252,13 @@
         <v>1124</v>
       </c>
       <c r="D54" t="n">
-        <v>30</v>
+        <v>596</v>
       </c>
       <c r="E54" t="n">
-        <v>1094</v>
+        <v>66</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2280,13 +2280,13 @@
         <v>1124</v>
       </c>
       <c r="D55" t="n">
-        <v>501</v>
+        <v>30</v>
       </c>
       <c r="E55" t="n">
-        <v>79</v>
+        <v>1094</v>
       </c>
       <c r="F55" t="n">
-        <v>544</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2308,13 +2308,13 @@
         <v>1124</v>
       </c>
       <c r="D56" t="n">
-        <v>595</v>
+        <v>501</v>
       </c>
       <c r="E56" t="n">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F56" t="n">
-        <v>463</v>
+        <v>544</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2333,16 +2333,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>132</v>
+        <v>3</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2364,13 +2364,13 @@
         <v>197</v>
       </c>
       <c r="D58" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2417,16 +2417,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,91 +785,91 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>610</v>
+        <v>414</v>
       </c>
       <c r="D2" t="n">
-        <v>515</v>
+        <v>188</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F2" t="n">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>414</v>
+        <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>313</v>
+        <v>515</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="G3" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>610</v>
+        <v>414</v>
       </c>
       <c r="D4" t="n">
-        <v>515</v>
+        <v>313</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H4" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -880,13 +880,13 @@
         <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>440</v>
+        <v>515</v>
       </c>
       <c r="E5" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -908,13 +908,13 @@
         <v>610</v>
       </c>
       <c r="D6" t="n">
-        <v>509</v>
+        <v>440</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="F6" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G6" t="n">
         <v>5</v>
@@ -925,74 +925,74 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D7" t="n">
-        <v>313</v>
+        <v>896</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H7" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D8" t="n">
-        <v>896</v>
+        <v>313</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H8" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D9" t="n">
-        <v>316</v>
+        <v>896</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1001,15 +1001,15 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1048,13 +1048,13 @@
         <v>414</v>
       </c>
       <c r="D11" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>78</v>
@@ -1065,18 +1065,18 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1085,26 +1085,26 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1113,26 +1113,26 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H13" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1141,15 +1141,15 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1205,18 +1205,18 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1225,26 +1225,26 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1253,26 +1253,26 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1281,15 +1281,15 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1345,18 +1345,18 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>945</v>
       </c>
       <c r="D22" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1368,23 +1368,23 @@
         <v>15</v>
       </c>
       <c r="H22" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>945</v>
       </c>
       <c r="D23" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1396,40 +1396,40 @@
         <v>15</v>
       </c>
       <c r="H23" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>945</v>
       </c>
       <c r="D24" t="n">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>15</v>
       </c>
       <c r="H24" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1440,13 +1440,13 @@
         <v>945</v>
       </c>
       <c r="D25" t="n">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
         <v>15</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1485,11 +1485,11 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1513,11 +1513,11 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1541,11 +1541,11 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1569,7 +1569,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1625,11 +1625,11 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1653,24 +1653,24 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>945</v>
       </c>
       <c r="D33" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>15</v>
@@ -1681,24 +1681,24 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>945</v>
       </c>
       <c r="D34" t="n">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
         <v>15</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1765,18 +1765,18 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>945</v>
+        <v>1000</v>
       </c>
       <c r="D37" t="n">
-        <v>896</v>
+        <v>1000</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1785,71 +1785,71 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D38" t="n">
-        <v>485</v>
+        <v>896</v>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H38" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D39" t="n">
-        <v>896</v>
+        <v>485</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G39" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1905,91 +1905,91 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1000</v>
+        <v>288</v>
       </c>
       <c r="D42" t="n">
-        <v>1000</v>
+        <v>172</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>288</v>
+        <v>1000</v>
       </c>
       <c r="D43" t="n">
-        <v>274</v>
+        <v>1000</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1000</v>
+        <v>288</v>
       </c>
       <c r="D44" t="n">
-        <v>1000</v>
+        <v>274</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2045,91 +2045,91 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>288</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>274</v>
+        <v>2</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1142</v>
+        <v>288</v>
       </c>
       <c r="D48" t="n">
-        <v>30</v>
+        <v>274</v>
       </c>
       <c r="E48" t="n">
-        <v>1089</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>288</v>
+        <v>1142</v>
       </c>
       <c r="D49" t="n">
-        <v>274</v>
+        <v>30</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1089</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2297,24 +2297,24 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45849</v>
+        <v>45855</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1124</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="E56" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>544</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>45855</v>
+        <v>45853</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2333,16 +2333,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="D57" t="n">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>45853</v>
+        <v>45852</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2364,74 +2364,18 @@
         <v>197</v>
       </c>
       <c r="D58" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>197</v>
-      </c>
-      <c r="D59" t="n">
-        <v>129</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>68</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>197</v>
-      </c>
-      <c r="D60" t="n">
-        <v>129</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>68</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -796,13 +796,13 @@
         <v>414</v>
       </c>
       <c r="D2" t="n">
-        <v>188</v>
+        <v>313</v>
       </c>
       <c r="E2" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
         <v>78</v>
@@ -813,91 +813,91 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>610</v>
+        <v>414</v>
       </c>
       <c r="D3" t="n">
-        <v>515</v>
+        <v>188</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F3" t="n">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H3" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>414</v>
+        <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>313</v>
+        <v>515</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="G4" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>610</v>
+        <v>414</v>
       </c>
       <c r="D5" t="n">
-        <v>515</v>
+        <v>313</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H5" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -908,13 +908,13 @@
         <v>610</v>
       </c>
       <c r="D6" t="n">
-        <v>440</v>
+        <v>515</v>
       </c>
       <c r="E6" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G6" t="n">
         <v>5</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -953,74 +953,74 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D8" t="n">
-        <v>313</v>
+        <v>896</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H8" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D9" t="n">
-        <v>896</v>
+        <v>313</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H9" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D10" t="n">
-        <v>316</v>
+        <v>896</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1029,15 +1029,15 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H10" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1093,18 +1093,18 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1113,26 +1113,26 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1141,26 +1141,26 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1169,15 +1169,15 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1233,18 +1233,18 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1253,26 +1253,26 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1281,26 +1281,26 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1309,15 +1309,15 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1373,18 +1373,18 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>945</v>
       </c>
       <c r="D23" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1396,23 +1396,23 @@
         <v>15</v>
       </c>
       <c r="H23" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>945</v>
       </c>
       <c r="D24" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1424,40 +1424,40 @@
         <v>15</v>
       </c>
       <c r="H24" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>945</v>
       </c>
       <c r="D25" t="n">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>15</v>
       </c>
       <c r="H25" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1468,13 +1468,13 @@
         <v>945</v>
       </c>
       <c r="D26" t="n">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>15</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1513,11 +1513,11 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1541,11 +1541,11 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1569,11 +1569,11 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1597,7 +1597,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1653,11 +1653,11 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1681,24 +1681,24 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>945</v>
       </c>
       <c r="D34" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>15</v>
@@ -1709,24 +1709,24 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>945</v>
       </c>
       <c r="D35" t="n">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
         <v>15</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1793,18 +1793,18 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>945</v>
+        <v>1000</v>
       </c>
       <c r="D38" t="n">
-        <v>896</v>
+        <v>1000</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1813,71 +1813,71 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D39" t="n">
-        <v>485</v>
+        <v>896</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H39" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D40" t="n">
-        <v>896</v>
+        <v>485</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G40" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1916,13 +1916,13 @@
         <v>288</v>
       </c>
       <c r="D42" t="n">
-        <v>172</v>
+        <v>274</v>
       </c>
       <c r="E42" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -1933,91 +1933,91 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1000</v>
+        <v>288</v>
       </c>
       <c r="D43" t="n">
-        <v>1000</v>
+        <v>172</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>288</v>
+        <v>1000</v>
       </c>
       <c r="D44" t="n">
-        <v>274</v>
+        <v>1000</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1000</v>
+        <v>288</v>
       </c>
       <c r="D45" t="n">
-        <v>1000</v>
+        <v>274</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2056,13 +2056,13 @@
         <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -2073,91 +2073,91 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>288</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>274</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1142</v>
+        <v>288</v>
       </c>
       <c r="D49" t="n">
-        <v>30</v>
+        <v>274</v>
       </c>
       <c r="E49" t="n">
-        <v>1089</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>288</v>
+        <v>1142</v>
       </c>
       <c r="D50" t="n">
-        <v>274</v>
+        <v>30</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1089</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2269,21 +2269,21 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1124</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E55" t="n">
-        <v>1094</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45855</v>
+        <v>45853</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2305,77 +2305,21 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="D56" t="n">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>197</v>
-      </c>
-      <c r="D57" t="n">
-        <v>132</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>65</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>197</v>
-      </c>
-      <c r="D58" t="n">
-        <v>129</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>68</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -813,7 +813,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -824,13 +824,13 @@
         <v>414</v>
       </c>
       <c r="D3" t="n">
-        <v>188</v>
+        <v>313</v>
       </c>
       <c r="E3" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
         <v>78</v>
@@ -841,91 +841,91 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>610</v>
+        <v>414</v>
       </c>
       <c r="D4" t="n">
-        <v>515</v>
+        <v>188</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F4" t="n">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H4" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>414</v>
+        <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>313</v>
+        <v>515</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="G5" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>610</v>
+        <v>414</v>
       </c>
       <c r="D6" t="n">
-        <v>515</v>
+        <v>313</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H6" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,74 +981,74 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D9" t="n">
-        <v>313</v>
+        <v>896</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D10" t="n">
-        <v>896</v>
+        <v>313</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H10" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D11" t="n">
-        <v>316</v>
+        <v>896</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1057,15 +1057,15 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1121,18 +1121,18 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1141,26 +1141,26 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1169,26 +1169,26 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1197,15 +1197,15 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1261,18 +1261,18 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1281,26 +1281,26 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1309,26 +1309,26 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1337,15 +1337,15 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1401,18 +1401,18 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>945</v>
       </c>
       <c r="D24" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1424,23 +1424,23 @@
         <v>15</v>
       </c>
       <c r="H24" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>945</v>
       </c>
       <c r="D25" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1452,40 +1452,40 @@
         <v>15</v>
       </c>
       <c r="H25" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>945</v>
       </c>
       <c r="D26" t="n">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>15</v>
       </c>
       <c r="H26" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1541,11 +1541,11 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1569,11 +1569,11 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1597,11 +1597,11 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1625,7 +1625,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1681,11 +1681,11 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1709,24 +1709,24 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>945</v>
       </c>
       <c r="D35" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>15</v>
@@ -1737,24 +1737,24 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>945</v>
       </c>
       <c r="D36" t="n">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
         <v>15</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1821,18 +1821,18 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>945</v>
+        <v>1000</v>
       </c>
       <c r="D39" t="n">
-        <v>896</v>
+        <v>1000</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1841,71 +1841,71 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D40" t="n">
-        <v>485</v>
+        <v>896</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H40" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D41" t="n">
-        <v>896</v>
+        <v>485</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G41" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1944,13 +1944,13 @@
         <v>288</v>
       </c>
       <c r="D43" t="n">
-        <v>172</v>
+        <v>274</v>
       </c>
       <c r="E43" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -1961,91 +1961,91 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1000</v>
+        <v>288</v>
       </c>
       <c r="D44" t="n">
-        <v>1000</v>
+        <v>172</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>288</v>
+        <v>1000</v>
       </c>
       <c r="D45" t="n">
-        <v>274</v>
+        <v>1000</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1000</v>
+        <v>288</v>
       </c>
       <c r="D46" t="n">
-        <v>1000</v>
+        <v>274</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2053,16 +2053,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2084,13 +2084,13 @@
         <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -2101,86 +2101,86 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>288</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>274</v>
+        <v>2</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1142</v>
+        <v>288</v>
       </c>
       <c r="D50" t="n">
-        <v>30</v>
+        <v>274</v>
       </c>
       <c r="E50" t="n">
-        <v>1089</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>288</v>
+        <v>1142</v>
       </c>
       <c r="D51" t="n">
-        <v>274</v>
+        <v>30</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1089</v>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52">
@@ -2241,85 +2241,29 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1124</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>596</v>
+        <v>3</v>
       </c>
       <c r="E54" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>462</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>3</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>197</v>
-      </c>
-      <c r="D56" t="n">
-        <v>132</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>65</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,7 +735,7 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="4" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -813,7 +813,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -852,13 +852,13 @@
         <v>414</v>
       </c>
       <c r="D4" t="n">
-        <v>188</v>
+        <v>313</v>
       </c>
       <c r="E4" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
         <v>78</v>
@@ -869,63 +869,63 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>610</v>
+        <v>414</v>
       </c>
       <c r="D5" t="n">
-        <v>515</v>
+        <v>188</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F5" t="n">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H5" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>414</v>
+        <v>610</v>
       </c>
       <c r="D6" t="n">
-        <v>313</v>
+        <v>515</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="G6" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1009,63 +1009,63 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D10" t="n">
-        <v>313</v>
+        <v>896</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H10" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D11" t="n">
-        <v>896</v>
+        <v>313</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H11" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1149,18 +1149,18 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1169,26 +1169,26 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1197,15 +1197,15 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1289,18 +1289,18 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1309,26 +1309,26 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1337,15 +1337,15 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1429,18 +1429,18 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>945</v>
       </c>
       <c r="D25" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1452,23 +1452,23 @@
         <v>15</v>
       </c>
       <c r="H25" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>945</v>
       </c>
       <c r="D26" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1480,12 +1480,12 @@
         <v>15</v>
       </c>
       <c r="H26" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1569,11 +1569,11 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1597,11 +1597,11 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1625,7 +1625,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1709,11 +1709,11 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1737,24 +1737,24 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>945</v>
       </c>
       <c r="D36" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>15</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1776,13 +1776,13 @@
         <v>1000</v>
       </c>
       <c r="D37" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1849,18 +1849,18 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>945</v>
+        <v>1000</v>
       </c>
       <c r="D40" t="n">
-        <v>896</v>
+        <v>1000</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -1869,43 +1869,43 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D41" t="n">
-        <v>485</v>
+        <v>896</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H41" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1972,13 +1972,13 @@
         <v>288</v>
       </c>
       <c r="D44" t="n">
-        <v>172</v>
+        <v>274</v>
       </c>
       <c r="E44" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -1989,63 +1989,63 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1000</v>
+        <v>288</v>
       </c>
       <c r="D45" t="n">
-        <v>1000</v>
+        <v>172</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>288</v>
+        <v>1000</v>
       </c>
       <c r="D46" t="n">
-        <v>274</v>
+        <v>1000</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2056,13 +2056,13 @@
         <v>197</v>
       </c>
       <c r="D47" t="n">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2081,16 +2081,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2112,13 +2112,13 @@
         <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -2129,58 +2129,58 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>288</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>274</v>
+        <v>2</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1142</v>
+        <v>288</v>
       </c>
       <c r="D51" t="n">
-        <v>30</v>
+        <v>274</v>
       </c>
       <c r="E51" t="n">
-        <v>1089</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -2213,7 +2213,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2236,34 +2236,6 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>3</v>
-      </c>
-      <c r="D54" t="n">
-        <v>3</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -381,56 +381,6 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>220</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="11" name="Image 11" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>242</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="12" name="Image 12" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -723,7 +673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,7 +686,7 @@
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="4" customWidth="1" min="5" max="5"/>
-    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
   </cols>
@@ -785,7 +735,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -813,7 +763,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -841,7 +791,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -869,7 +819,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -880,13 +830,13 @@
         <v>414</v>
       </c>
       <c r="D5" t="n">
-        <v>188</v>
+        <v>313</v>
       </c>
       <c r="E5" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
         <v>78</v>
@@ -897,35 +847,35 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>610</v>
+        <v>414</v>
       </c>
       <c r="D6" t="n">
-        <v>515</v>
+        <v>188</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F6" t="n">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H6" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -953,7 +903,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,7 +931,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1009,7 +959,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1037,35 +987,35 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D11" t="n">
-        <v>313</v>
+        <v>896</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1093,7 +1043,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1121,7 +1071,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1149,7 +1099,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1177,18 +1127,18 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1197,15 +1147,15 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1233,7 +1183,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1261,7 +1211,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1289,7 +1239,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1317,18 +1267,18 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1337,15 +1287,15 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1373,7 +1323,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1401,7 +1351,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1429,7 +1379,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1457,18 +1407,18 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>945</v>
       </c>
       <c r="D26" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1480,12 +1430,12 @@
         <v>15</v>
       </c>
       <c r="H26" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1513,7 +1463,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1541,7 +1491,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1569,7 +1519,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1597,11 +1547,11 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1625,7 +1575,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1653,7 +1603,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1681,7 +1631,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1709,7 +1659,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1737,11 +1687,11 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1765,7 +1715,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1776,13 +1726,13 @@
         <v>1000</v>
       </c>
       <c r="D37" t="n">
-        <v>980</v>
+        <v>991</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1793,7 +1743,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1804,13 +1754,13 @@
         <v>1000</v>
       </c>
       <c r="D38" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1821,7 +1771,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1849,7 +1799,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1877,18 +1827,18 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>945</v>
+        <v>1000</v>
       </c>
       <c r="D41" t="n">
-        <v>896</v>
+        <v>1000</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -1897,15 +1847,15 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1933,7 +1883,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1961,7 +1911,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1989,7 +1939,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2000,13 +1950,13 @@
         <v>288</v>
       </c>
       <c r="D45" t="n">
-        <v>172</v>
+        <v>274</v>
       </c>
       <c r="E45" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2017,35 +1967,35 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1000</v>
+        <v>288</v>
       </c>
       <c r="D46" t="n">
-        <v>1000</v>
+        <v>172</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2053,16 +2003,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -2073,7 +2023,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2084,13 +2034,13 @@
         <v>197</v>
       </c>
       <c r="D48" t="n">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -2101,7 +2051,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2109,16 +2059,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="D49" t="n">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -2129,7 +2079,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2140,13 +2090,13 @@
         <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2157,85 +2107,29 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>288</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>274</v>
+        <v>2</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D52" t="n">
-        <v>595</v>
-      </c>
-      <c r="E52" t="n">
-        <v>68</v>
-      </c>
-      <c r="F52" t="n">
-        <v>467</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>3</v>
-      </c>
-      <c r="D53" t="n">
-        <v>3</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -381,6 +381,31 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>220</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -685,8 +710,8 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="4" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
   </cols>
@@ -735,7 +760,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -763,7 +788,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -791,7 +816,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -819,7 +844,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -847,7 +872,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -858,13 +883,13 @@
         <v>414</v>
       </c>
       <c r="D6" t="n">
-        <v>188</v>
+        <v>313</v>
       </c>
       <c r="E6" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>78</v>
@@ -875,7 +900,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -903,7 +928,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -931,7 +956,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -959,7 +984,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -987,7 +1012,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1015,7 +1040,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1043,7 +1068,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1071,7 +1096,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1099,7 +1124,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1127,7 +1152,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1155,7 +1180,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1183,7 +1208,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1211,7 +1236,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1239,7 +1264,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1267,7 +1292,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1295,7 +1320,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1323,7 +1348,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1351,7 +1376,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1379,7 +1404,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1407,7 +1432,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1435,7 +1460,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1463,7 +1488,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1491,7 +1516,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1519,7 +1544,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1547,7 +1572,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1575,7 +1600,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1603,7 +1628,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1631,7 +1656,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1659,7 +1684,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1687,7 +1712,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1715,7 +1740,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1723,16 +1748,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1000</v>
+        <v>1048</v>
       </c>
       <c r="D37" t="n">
-        <v>991</v>
+        <v>766</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="F37" t="n">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1743,7 +1768,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1754,13 +1779,13 @@
         <v>1000</v>
       </c>
       <c r="D38" t="n">
-        <v>980</v>
+        <v>991</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1771,7 +1796,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1782,13 +1807,13 @@
         <v>1000</v>
       </c>
       <c r="D39" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1799,7 +1824,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1827,7 +1852,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1855,7 +1880,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1883,7 +1908,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1911,7 +1936,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1939,7 +1964,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1967,7 +1992,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1978,13 +2003,13 @@
         <v>288</v>
       </c>
       <c r="D46" t="n">
-        <v>172</v>
+        <v>274</v>
       </c>
       <c r="E46" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -1995,35 +2020,35 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>1142</v>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
+        <v>207</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2031,16 +2056,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -2051,7 +2076,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2062,13 +2087,13 @@
         <v>197</v>
       </c>
       <c r="D49" t="n">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -2079,7 +2104,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2087,16 +2112,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2107,7 +2132,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2118,13 +2143,13 @@
         <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -710,7 +710,7 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
@@ -760,7 +760,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -771,13 +771,13 @@
         <v>414</v>
       </c>
       <c r="D2" t="n">
-        <v>313</v>
+        <v>19</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
         <v>78</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1751,13 +1751,13 @@
         <v>1048</v>
       </c>
       <c r="D37" t="n">
-        <v>766</v>
+        <v>1018</v>
       </c>
       <c r="E37" t="n">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="F37" t="n">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1776,16 +1776,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1000</v>
+        <v>1048</v>
       </c>
       <c r="D38" t="n">
-        <v>991</v>
+        <v>766</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="F38" t="n">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1807,13 +1807,13 @@
         <v>1000</v>
       </c>
       <c r="D39" t="n">
-        <v>980</v>
+        <v>991</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1835,13 +1835,13 @@
         <v>1000</v>
       </c>
       <c r="D40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2031,13 +2031,13 @@
         <v>1142</v>
       </c>
       <c r="D47" t="n">
-        <v>207</v>
+        <v>3</v>
       </c>
       <c r="E47" t="n">
-        <v>209</v>
+        <v>1127</v>
       </c>
       <c r="F47" t="n">
-        <v>714</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -2048,35 +2048,35 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>1142</v>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>207</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2084,16 +2084,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2115,13 +2115,13 @@
         <v>197</v>
       </c>
       <c r="D50" t="n">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2140,16 +2140,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="D51" t="n">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -406,6 +406,31 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>242</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -698,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -760,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -771,13 +796,13 @@
         <v>414</v>
       </c>
       <c r="D2" t="n">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="E2" t="n">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>78</v>
@@ -788,7 +813,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -799,13 +824,13 @@
         <v>414</v>
       </c>
       <c r="D3" t="n">
-        <v>313</v>
+        <v>19</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
         <v>78</v>
@@ -816,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -844,7 +869,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -872,7 +897,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -900,7 +925,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -928,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -956,7 +981,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -984,7 +1009,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1012,7 +1037,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1040,7 +1065,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1068,7 +1093,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1096,7 +1121,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1124,7 +1149,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1152,7 +1177,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1180,7 +1205,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1208,7 +1233,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1236,7 +1261,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1264,7 +1289,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1292,7 +1317,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1320,7 +1345,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1348,7 +1373,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1376,7 +1401,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1404,7 +1429,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1432,7 +1457,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1460,7 +1485,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1488,7 +1513,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1516,7 +1541,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1544,7 +1569,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1572,7 +1597,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1600,7 +1625,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1628,7 +1653,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1656,7 +1681,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1684,7 +1709,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1712,7 +1737,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1740,24 +1765,24 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>1048</v>
       </c>
       <c r="D37" t="n">
-        <v>1018</v>
+        <v>1033</v>
       </c>
       <c r="E37" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1768,24 +1793,24 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>1048</v>
       </c>
       <c r="D38" t="n">
-        <v>766</v>
+        <v>1033</v>
       </c>
       <c r="E38" t="n">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1796,7 +1821,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1804,16 +1829,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1000</v>
+        <v>1048</v>
       </c>
       <c r="D39" t="n">
-        <v>991</v>
+        <v>766</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="F39" t="n">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1824,7 +1849,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1835,13 +1860,13 @@
         <v>1000</v>
       </c>
       <c r="D40" t="n">
-        <v>980</v>
+        <v>991</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1852,7 +1877,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1863,13 +1888,13 @@
         <v>1000</v>
       </c>
       <c r="D41" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1880,7 +1905,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1891,13 +1916,13 @@
         <v>288</v>
       </c>
       <c r="D42" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -1908,35 +1933,35 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>288</v>
+        <v>1048</v>
       </c>
       <c r="D43" t="n">
-        <v>274</v>
+        <v>1018</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1964,7 +1989,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1992,7 +2017,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2020,7 +2045,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2031,13 +2056,13 @@
         <v>1142</v>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
+        <v>206</v>
       </c>
       <c r="E47" t="n">
-        <v>1127</v>
+        <v>209</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>715</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -2048,63 +2073,63 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1142</v>
+        <v>288</v>
       </c>
       <c r="D48" t="n">
-        <v>207</v>
+        <v>274</v>
       </c>
       <c r="E48" t="n">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>714</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>1142</v>
       </c>
       <c r="D49" t="n">
-        <v>3</v>
+        <v>207</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2112,16 +2137,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2132,7 +2157,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2143,19 +2168,47 @@
         <v>197</v>
       </c>
       <c r="D51" t="n">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1127</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
